--- a/Python Language/Projects/Project_6_Extract_CGPA_&_Rolls/Main.Files/NRC.xlsx
+++ b/Python Language/Projects/Project_6_Extract_CGPA_&_Rolls/Main.Files/NRC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Codeing\Python Language\Projects\Project-6_Extract_CGPA_&amp;_Rolls\Main.Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Codeing\Python Language\Projects\Project_6_Extract_CGPA_&amp;_Rolls\Main.Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0BBF76-01B0-4D99-9FD7-89237CF7D890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B25AA5D-367E-4D7E-9519-87A6566DF127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="55">
   <si>
     <t>MEHEDI HASAN RANA</t>
   </si>
@@ -33,9 +33,6 @@
     <t>ADNAN SAMI SIAM</t>
   </si>
   <si>
-    <t>MD. ARIFUL ISLAM</t>
-  </si>
-  <si>
     <t>MD. MOHIUDDIN MAHI</t>
   </si>
   <si>
@@ -60,9 +57,6 @@
     <t>RAJ HOSSAIN</t>
   </si>
   <si>
-    <t>MD. RUBAYED HASAN</t>
-  </si>
-  <si>
     <t>MD. HASMUL HASAN</t>
   </si>
   <si>
@@ -120,33 +114,21 @@
     <t>PLABON SAHA</t>
   </si>
   <si>
-    <t>Shahrier Joy</t>
-  </si>
-  <si>
     <t>NISHAT JAHAN JITU</t>
   </si>
   <si>
     <t>EMON CHOWDHURY</t>
   </si>
   <si>
-    <t>BADHON BIN KALAM</t>
-  </si>
-  <si>
     <t>TAHMID HOSSAIN TA-SEEN</t>
   </si>
   <si>
-    <t>MAHIN HOSSAIN</t>
-  </si>
-  <si>
     <t>SAYEL SAYED</t>
   </si>
   <si>
     <t>KAZI SAMIUL ALAM</t>
   </si>
   <si>
-    <t>MD. LAMMIM HOSSAIN RUDRO</t>
-  </si>
-  <si>
     <t>MAHIDUL ISLAM OVI</t>
   </si>
   <si>
@@ -169,9 +151,6 @@
   </si>
   <si>
     <t xml:space="preserve">                       Name</t>
-  </si>
-  <si>
-    <t>CGPA  1st Semester</t>
   </si>
   <si>
     <r>
@@ -200,24 +179,12 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> Ohkat in 2nd Semester</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             A</t>
-  </si>
-  <si>
     <t>Md. Mahi Romjan</t>
   </si>
   <si>
     <t>Muzahidul Islam Saim</t>
   </si>
   <si>
-    <t>Md. Alif mia</t>
-  </si>
-  <si>
     <t>Rifat</t>
   </si>
   <si>
@@ -225,6 +192,27 @@
   </si>
   <si>
     <t>3rd Semester</t>
+  </si>
+  <si>
+    <t>MD. EBRAHIM</t>
+  </si>
+  <si>
+    <t>Md. Alif Mia</t>
+  </si>
+  <si>
+    <t>MD. JOBAEID KHA</t>
+  </si>
+  <si>
+    <t>NOR-A-ALAHI SAKIM</t>
+  </si>
+  <si>
+    <t>EMTIAZ AHMED SAMI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2nd Semester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1st Semester</t>
   </si>
 </sst>
 </file>
@@ -301,16 +289,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,35 +581,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="31.36328125" customWidth="1"/>
     <col min="3" max="3" width="16.36328125" customWidth="1"/>
-    <col min="4" max="4" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6328125" customWidth="1"/>
     <col min="5" max="5" width="12.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" t="s">
         <v>47</v>
-      </c>
-      <c r="B1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -630,13 +620,16 @@
         <v>452068</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -644,169 +637,205 @@
         <v>452074</v>
       </c>
       <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4">
+        <v>635602</v>
+      </c>
+      <c r="C4" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1">
+      <c r="A5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="5">
+        <v>635666</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1">
+      <c r="A6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1">
-      <c r="A4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="4">
-        <v>635666</v>
-      </c>
-      <c r="C4">
-        <v>3.1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>652806</v>
-      </c>
-      <c r="C5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>652808</v>
-      </c>
-      <c r="C6">
-        <v>3.75</v>
+      <c r="B6" s="1">
+        <v>645107</v>
+      </c>
+      <c r="C6" s="4">
+        <v>3.3</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>2.87</v>
+      </c>
+      <c r="E6">
+        <v>3.07</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>652810</v>
+        <v>652808</v>
       </c>
       <c r="C7">
-        <v>3.23</v>
-      </c>
-      <c r="D7">
-        <v>2.99</v>
+        <v>3.75</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>2.82</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>652817</v>
+        <v>652810</v>
       </c>
       <c r="C8">
-        <v>3.43</v>
+        <v>3.23</v>
       </c>
       <c r="D8">
-        <v>2.93</v>
+        <v>2.99</v>
+      </c>
+      <c r="E8">
+        <v>2.76</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>652818</v>
+        <v>652817</v>
       </c>
       <c r="C9">
-        <v>3.83</v>
+        <v>3.43</v>
       </c>
       <c r="D9">
-        <v>3.17</v>
+        <v>2.93</v>
+      </c>
+      <c r="E9">
+        <v>2.99</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>652819</v>
+        <v>652818</v>
       </c>
       <c r="C10">
-        <v>3.45</v>
+        <v>3.83</v>
       </c>
       <c r="D10">
-        <v>2.92</v>
+        <v>3.17</v>
+      </c>
+      <c r="E10">
+        <v>3.14</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11">
-        <v>652821</v>
+        <v>652819</v>
       </c>
       <c r="C11">
-        <v>3.08</v>
+        <v>3.45</v>
       </c>
       <c r="D11">
-        <v>2.4300000000000002</v>
+        <v>2.92</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2.7</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B12">
-        <v>652822</v>
+        <v>652821</v>
       </c>
       <c r="C12">
-        <v>3.93</v>
+        <v>3.08</v>
       </c>
       <c r="D12">
-        <v>3.12</v>
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="E12">
+        <v>2.23</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B13">
-        <v>652824</v>
+        <v>652822</v>
       </c>
       <c r="C13">
-        <v>3.35</v>
+        <v>3.93</v>
       </c>
       <c r="D13">
-        <v>2.64</v>
+        <v>3.12</v>
+      </c>
+      <c r="E13">
+        <v>2.79</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B14">
-        <v>652827</v>
-      </c>
-      <c r="C14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" t="s">
-        <v>51</v>
+        <v>652824</v>
+      </c>
+      <c r="C14">
+        <v>3.35</v>
+      </c>
+      <c r="D14">
+        <v>2.64</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2.4</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>652828</v>
@@ -817,10 +846,13 @@
       <c r="D15">
         <v>2.62</v>
       </c>
+      <c r="E15" s="4">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B16">
         <v>652829</v>
@@ -831,24 +863,30 @@
       <c r="D16">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B17">
         <v>652830</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="4">
         <v>3.6</v>
       </c>
       <c r="D17">
         <v>2.75</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B18">
         <v>652831</v>
@@ -859,10 +897,13 @@
       <c r="D18">
         <v>2.87</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B19">
         <v>652833</v>
@@ -873,10 +914,13 @@
       <c r="D19">
         <v>2.71</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B20">
         <v>652834</v>
@@ -885,12 +929,15 @@
         <v>2.95</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B21">
         <v>652836</v>
@@ -899,12 +946,15 @@
         <v>2.88</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B22">
         <v>652837</v>
@@ -915,52 +965,64 @@
       <c r="D22">
         <v>3.01</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B23">
         <v>652838</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B24">
         <v>652839</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="4">
         <v>2.9</v>
       </c>
       <c r="D24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E24">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B25">
         <v>652841</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B26">
         <v>652842</v>
@@ -971,24 +1033,30 @@
       <c r="D26">
         <v>2.87</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B27">
         <v>652843</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="4">
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B28">
         <v>652846</v>
@@ -996,27 +1064,33 @@
       <c r="C28">
         <v>3.43</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="4">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B29">
         <v>652847</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="4">
         <v>3.2</v>
       </c>
       <c r="D29">
         <v>2.54</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B30">
         <v>652848</v>
@@ -1027,10 +1101,13 @@
       <c r="D30">
         <v>2.5099999999999998</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B31">
         <v>652853</v>
@@ -1039,12 +1116,15 @@
         <v>2.93</v>
       </c>
       <c r="D31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B32">
         <v>652854</v>
@@ -1053,287 +1133,313 @@
         <v>3.13</v>
       </c>
       <c r="D32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E32" s="4">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B33">
         <v>652855</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="4">
         <v>3.5</v>
       </c>
       <c r="D33">
         <v>2.87</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34">
+        <v>652857</v>
+      </c>
+      <c r="C34">
+        <v>3.03</v>
+      </c>
+      <c r="D34">
+        <v>2.88</v>
+      </c>
+      <c r="E34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35">
+        <v>652858</v>
+      </c>
+      <c r="C35" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
         <v>31</v>
       </c>
-      <c r="B34">
-        <v>652856</v>
-      </c>
-      <c r="C34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="B36">
+        <v>652864</v>
+      </c>
+      <c r="C36">
+        <v>3.13</v>
+      </c>
+      <c r="D36" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37">
+        <v>652867</v>
+      </c>
+      <c r="C37" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38">
+        <v>652868</v>
+      </c>
+      <c r="C38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39">
+        <v>652870</v>
+      </c>
+      <c r="C39">
+        <v>3.13</v>
+      </c>
+      <c r="D39" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40">
+        <v>652881</v>
+      </c>
+      <c r="C40" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41">
+        <v>652883</v>
+      </c>
+      <c r="C41" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="D41">
+        <v>2.36</v>
+      </c>
+      <c r="E41">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42">
+        <v>652884</v>
+      </c>
+      <c r="C42" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43">
+        <v>652885</v>
+      </c>
+      <c r="C43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" s="4">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15" thickBot="1">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44">
+        <v>666327</v>
+      </c>
+      <c r="C44">
+        <v>3.95</v>
+      </c>
+      <c r="D44">
+        <v>3.12</v>
+      </c>
+      <c r="E44">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15" thickBot="1">
+      <c r="A45" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="1">
+        <v>674656</v>
+      </c>
+      <c r="C45" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="D45">
+        <v>3.19</v>
+      </c>
+      <c r="E45">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15" thickBot="1">
+      <c r="A46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2">
+        <v>676956</v>
+      </c>
+      <c r="C46" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="D46" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="E46" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47">
+        <v>652877</v>
+      </c>
+      <c r="C47">
+        <v>2.95</v>
+      </c>
+      <c r="D47" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15" thickBot="1">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48">
+        <v>679355</v>
+      </c>
+      <c r="C48" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="D48">
+        <v>2.92</v>
+      </c>
+      <c r="E48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15" thickBot="1">
+      <c r="A49" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="1">
+        <v>683110</v>
+      </c>
+      <c r="C49">
+        <v>3.03</v>
+      </c>
+      <c r="D49">
+        <v>2.54</v>
+      </c>
+      <c r="E49" s="4">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35">
-        <v>652857</v>
-      </c>
-      <c r="C35">
-        <v>3.03</v>
-      </c>
-      <c r="D35">
-        <v>2.88</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36">
-        <v>652858</v>
-      </c>
-      <c r="C36">
-        <v>3.1</v>
-      </c>
-      <c r="D36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37">
-        <v>652860</v>
-      </c>
-      <c r="C37" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38">
-        <v>652864</v>
-      </c>
-      <c r="C38">
-        <v>3.13</v>
-      </c>
-      <c r="D38" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39">
-        <v>652865</v>
-      </c>
-      <c r="C39" t="s">
-        <v>49</v>
-      </c>
-      <c r="D39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40">
-        <v>652867</v>
-      </c>
-      <c r="C40">
-        <v>3.5</v>
-      </c>
-      <c r="D40" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41">
-        <v>652868</v>
-      </c>
-      <c r="C41" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42">
-        <v>652869</v>
-      </c>
-      <c r="C42">
-        <v>3.3</v>
-      </c>
-      <c r="D42" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43">
-        <v>652870</v>
-      </c>
-      <c r="C43">
-        <v>3.13</v>
-      </c>
-      <c r="D43" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>41</v>
-      </c>
-      <c r="B44">
-        <v>652877</v>
-      </c>
-      <c r="C44">
-        <v>2.95</v>
-      </c>
-      <c r="D44" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45">
-        <v>652881</v>
-      </c>
-      <c r="C45">
-        <v>3.1</v>
-      </c>
-      <c r="D45" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46">
-        <v>652883</v>
-      </c>
-      <c r="C46">
-        <v>3.3</v>
-      </c>
-      <c r="D46">
-        <v>2.36</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>44</v>
-      </c>
-      <c r="B47">
-        <v>652884</v>
-      </c>
-      <c r="C47" t="s">
-        <v>49</v>
-      </c>
-      <c r="D47" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15" thickBot="1">
-      <c r="A48" t="s">
-        <v>45</v>
-      </c>
-      <c r="B48">
-        <v>652885</v>
-      </c>
-      <c r="C48" t="s">
-        <v>49</v>
-      </c>
-      <c r="D48" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15" thickBot="1">
-      <c r="A49" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49" s="2">
-        <v>676956</v>
-      </c>
-      <c r="C49">
-        <v>3.1</v>
-      </c>
-      <c r="D49">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15" thickBot="1">
-      <c r="A50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50" s="1">
-        <v>645107</v>
+      <c r="B50">
+        <v>685904</v>
       </c>
       <c r="C50">
-        <v>3.3</v>
+        <v>3.43</v>
       </c>
       <c r="D50">
-        <v>2.87</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15" thickBot="1">
-      <c r="A51" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51" s="1">
-        <v>674656</v>
-      </c>
-      <c r="C51">
-        <v>3.6</v>
-      </c>
-      <c r="D51">
-        <v>3.19</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15" thickBot="1">
-      <c r="A52" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52" s="1">
-        <v>683110</v>
-      </c>
-      <c r="C52">
-        <v>3.03</v>
-      </c>
-      <c r="D52">
-        <v>2.54</v>
+        <v>3.29</v>
+      </c>
+      <c r="E50">
+        <v>3.26</v>
       </c>
     </row>
   </sheetData>
